--- a/src/test/resources/dataFiles/projectData.xlsx
+++ b/src/test/resources/dataFiles/projectData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12240"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>firstName</t>
+  </si>
+  <si>
+    <t>middleName</t>
   </si>
   <si>
     <t>lastName</t>
@@ -41,13 +44,25 @@
     <t>Jane</t>
   </si>
   <si>
+    <t>Anne</t>
+  </si>
+  <si>
     <t>Doe</t>
   </si>
   <si>
     <t xml:space="preserve">John </t>
   </si>
   <si>
+    <t>Adam</t>
+  </si>
+  <si>
     <t>Jim</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>Jill</t>
   </si>
 </sst>
 </file>
@@ -1200,20 +1215,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9.77777777777778" customWidth="1"/>
-    <col min="2" max="2" width="9.44444444444444" customWidth="1"/>
-    <col min="3" max="3" width="11.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="12.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="9.44444444444444" customWidth="1"/>
+    <col min="4" max="4" width="11.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1223,38 +1239,62 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>1234567</v>
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>12345678</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>2345678</v>
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>23456789</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>3456789</v>
+      <c r="D4">
+        <v>34567891</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>45678912</v>
       </c>
     </row>
   </sheetData>
